--- a/3er año/Septimo Semestre/horarios.xlsx
+++ b/3er año/Septimo Semestre/horarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\importante\Facultad\3er año\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\importante\Facultad\3er año\Septimo Semestre\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31B19CE-60C1-42A1-A7FE-718180154BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37159D36-8ACC-48D1-92D6-017D4610F651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13935" yWindow="0" windowWidth="13935" windowHeight="16200" xr2:uid="{28D87BDB-8089-4128-B228-EC0F311DB0A6}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="20910" windowHeight="11835" xr2:uid="{28D87BDB-8089-4128-B228-EC0F311DB0A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>Lunes</t>
   </si>
@@ -84,6 +84,18 @@
   </si>
   <si>
     <t>AULA 4</t>
+  </si>
+  <si>
+    <t>AULA 10B</t>
+  </si>
+  <si>
+    <t>AULA 8</t>
+  </si>
+  <si>
+    <t>PR AULA 2</t>
+  </si>
+  <si>
+    <t>AULA 5</t>
   </si>
 </sst>
 </file>
@@ -617,7 +629,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,7 +659,9 @@
       <c r="B2" s="7"/>
       <c r="C2" s="1"/>
       <c r="D2" s="8"/>
-      <c r="E2" s="1"/>
+      <c r="E2" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -657,7 +671,9 @@
       <c r="B3" s="12"/>
       <c r="C3" s="1"/>
       <c r="D3" s="14"/>
-      <c r="E3" s="1"/>
+      <c r="E3" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -665,9 +681,13 @@
         <v>0.375</v>
       </c>
       <c r="B4" s="7"/>
-      <c r="C4" s="1"/>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="D4" s="8"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -675,9 +695,13 @@
         <v>0.39583333333333298</v>
       </c>
       <c r="B5" s="7"/>
-      <c r="C5" s="1"/>
+      <c r="C5" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -685,7 +709,9 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="1"/>
+      <c r="C6" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="D6" s="5" t="s">
         <v>8</v>
       </c>
@@ -698,7 +724,9 @@
         <v>0.4375</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="14"/>
+      <c r="C7" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="D7" s="5" t="s">
         <v>12</v>
       </c>
@@ -817,7 +845,7 @@
       <c r="C16" s="3"/>
       <c r="D16" s="1"/>
       <c r="E16" s="3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="F16" s="1"/>
       <c r="I16" s="4"/>
@@ -828,7 +856,9 @@
         <v>0.64583333333333404</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
